--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T15:09:42+00:00</t>
+    <t>2025-07-09T16:03:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,7 +257,7 @@
 </t>
   </si>
   <si>
-    <t>Identifiant de l'organisation</t>
+    <t>Identifiant de l'organisation - IdStruct</t>
   </si>
   <si>
     <t>sas-organisation-logical.nom</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T16:03:26+00:00</t>
+    <t>2025-08-18T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T13:46:32+00:00</t>
+    <t>2025-08-19T13:46:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T13:46:05+00:00</t>
+    <t>2025-08-19T14:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T14:52:01+00:00</t>
+    <t>2025-08-22T10:17:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T10:17:30+00:00</t>
+    <t>2025-08-22T12:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T12:56:47+00:00</t>
+    <t>2025-08-22T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:23:20+00:00</t>
+    <t>2025-08-22T14:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-organisation-logical.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T14:29:38+00:00</t>
+    <t>2025-08-22T15:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
